--- a/medicine/Enfance/Pabé_Mongo/Pabé_Mongo.xlsx
+++ b/medicine/Enfance/Pabé_Mongo/Pabé_Mongo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pab%C3%A9_Mongo</t>
+          <t>Pabé_Mongo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pabé Mongo (pseudonyme de Pascal Bekolo Bekolo), né le 6 juin 1948 à Doumé dans la région de l'Est, est un universitaire et écrivain camerounais, auteur de romans, de nouvelles, de textes pour le théâtre, notamment radiophoniques, d'essais et d'ouvrages pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pab%C3%A9_Mongo</t>
+          <t>Pabé_Mongo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord enseignant de collège, Pascal Bekolo Bekolo est entré dans l'administration centrale, puis est devenu directeur-adjoint de l'Information et de la Presse[1].
-Titulaire d'un doctorat de 3e cycle, il a enseigné à l'université de Ngaoundéré, puis à celle de Yaoundé 1[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord enseignant de collège, Pascal Bekolo Bekolo est entré dans l'administration centrale, puis est devenu directeur-adjoint de l'Information et de la Presse.
+Titulaire d'un doctorat de 3e cycle, il a enseigné à l'université de Ngaoundéré, puis à celle de Yaoundé 1.
 Il a publié ses œuvres de fiction sous le nom de « Pabé Mongo ».
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pab%C3%A9_Mongo</t>
+          <t>Pabé_Mongo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Jubilé littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du 15 au 17 novembre 2022, il a célébré ses 50 ans d'écriture pour l'avancée de la production littéraire au Cameroun[3]. Le musée national à Yaoundé a abrité ces trois jours de commémoration. Dans cet édifice autrefois palais présidentiel, l'ancien Secrétaire Général du Centre Universitaire de Ngaoundéré[4], assure également la coordination du Pôle des Arts Littéraires.
-Pabé Mongo a reçu, pour l'ensemble de sa carrière littéraire et scientifique, l'hommage solennel du Pr Faustin Mvogo, en sa qualité d'enseignant-chercheur des universités. C'est à l'auteur de Père inconnu[5] que la sphère universitaire doit l'introduction de l'enseignement scientifique et méthodique de la création littéraire dans les universités d'État du pays[3].
-Pabé Mongo est aussi reconnu comme le créateur d'une théorie intitulée la nouvelle littérature camerounaise, en abrégé la NOLICA[6]. Par cette approche analytique, l'auteur stipule que la littérature camerounaise a traversé le maquis et les affres de la récession des libertés du fait des dictatures post-coloniales. Toutefois, selon le théoricien littéraire, il est urgent que les écrivains retrouvent leurs lettres de noblesse en s'affranchissant des carcans linguistiques liés à l'usage de la langue française[7]. L'auteur de Tel père, quel fils[8] reconnaît l'usage du camfranglais et encourage les créateurs littéraires à employer désormais le "francophonien" qu'il distingue par deux éléments principaux essentiels : la communicabilité inter-francophone et le génie culturel[7].
-Le jubilé littéraire de Pabé Mongo est aussi marqué par la relance de l'Association des Poètes et Ecrivains Camerounais (APEC)[9] dont il assure la direction depuis 2016 sous l'impulsion du poète - ancien Ministre des Arts et de la Culture -, Narcisse Mouellé Kombi[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 15 au 17 novembre 2022, il a célébré ses 50 ans d'écriture pour l'avancée de la production littéraire au Cameroun. Le musée national à Yaoundé a abrité ces trois jours de commémoration. Dans cet édifice autrefois palais présidentiel, l'ancien Secrétaire Général du Centre Universitaire de Ngaoundéré, assure également la coordination du Pôle des Arts Littéraires.
+Pabé Mongo a reçu, pour l'ensemble de sa carrière littéraire et scientifique, l'hommage solennel du Pr Faustin Mvogo, en sa qualité d'enseignant-chercheur des universités. C'est à l'auteur de Père inconnu que la sphère universitaire doit l'introduction de l'enseignement scientifique et méthodique de la création littéraire dans les universités d'État du pays.
+Pabé Mongo est aussi reconnu comme le créateur d'une théorie intitulée la nouvelle littérature camerounaise, en abrégé la NOLICA. Par cette approche analytique, l'auteur stipule que la littérature camerounaise a traversé le maquis et les affres de la récession des libertés du fait des dictatures post-coloniales. Toutefois, selon le théoricien littéraire, il est urgent que les écrivains retrouvent leurs lettres de noblesse en s'affranchissant des carcans linguistiques liés à l'usage de la langue française. L'auteur de Tel père, quel fils reconnaît l'usage du camfranglais et encourage les créateurs littéraires à employer désormais le "francophonien" qu'il distingue par deux éléments principaux essentiels : la communicabilité inter-francophone et le génie culturel.
+Le jubilé littéraire de Pabé Mongo est aussi marqué par la relance de l'Association des Poètes et Ecrivains Camerounais (APEC) dont il assure la direction depuis 2016 sous l'impulsion du poète - ancien Ministre des Arts et de la Culture -, Narcisse Mouellé Kombi.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pab%C3%A9_Mongo</t>
+          <t>Pabé_Mongo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un enfant comme les autres : nouvelles, CLE, Yaoundé, 1972
 La Guerre des calebasses, DAEC Coopération, Paris, 1973 (pièce radiophonique)
@@ -594,7 +612,7 @@
 Nos ancêtres les baobabs : roman, L'Harmattan, Paris, 1994
 Le Substitut, Radio-France internationale, Paris, 1989
 « La disqualification de la nouvelle de l'arsenal littéraire africain pour cause d'inefficacité », Mots pluriels, no 9, février 1999, [lire en ligne]
-Le livre du monde (voyage en Chine), Édi'-Action, Yaoundé, 2001[11]
+Le livre du monde (voyage en Chine), Édi'-Action, Yaoundé, 2001
 « L'Université des Mutants : une utopie universaliste récupérable ? », Université de Yaoundé 1, Actes du colloque sur Senghor 10 janvier 2002, 2003, p. 75-82.  (ISBN 2-911541-89-8), [lire en ligne]
 La Nolica : la nouvelle littérature camerounaise : du maquis à la cité : essai, Presses universitaires de Yaoundé, Yaoundé, 2005
 Jojo la star du kwa : la nouvelle œuvre littéraire camerounaise : du kwat au palace : essai,Presses universitaires de Yaoundé, Yaoundé, 2009</t>
